--- a/doc/项目进度表.xlsx
+++ b/doc/项目进度表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB6934C-8C19-4729-BF17-CDCF0919D523}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DACD40-E1E0-49BB-8AEA-9A10649CE5A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5730" yWindow="2580" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>创建数据库，搭建框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>完成评论系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成接口拦截功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -553,6 +557,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
